--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/017_AVG中的服务器行为.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/017_AVG中的服务器行为.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF9157E-EBB8-4765-90DC-D3B6EDFAD2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1285D7-96C8-49D0-8CC6-A96B22D8D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="1170" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avgServerAction|服务器行为++" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/017_AVG中的服务器行为.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/017_AVG中的服务器行为.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1285D7-96C8-49D0-8CC6-A96B22D8D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272E0391-8EFE-4B26-A984-A095183C0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="1170" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avgServerAction|服务器行为++" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>看完MV苏醒后好感,选择涂凌</t>
+  </si>
+  <si>
+    <t>11;5</t>
+  </si>
+  <si>
+    <t>指正冰酒手套</t>
   </si>
 </sst>
 </file>
@@ -216,18 +222,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -303,10 +309,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -636,10 +642,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,6 +1103,26 @@
         <v>40</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21001</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
